--- a/GLOBAL/Causas Cambio Climático/Antropógenas/Consumo Combustibles Global 1990-2019.xlsx
+++ b/GLOBAL/Causas Cambio Climático/Antropógenas/Consumo Combustibles Global 1990-2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Desktop\DI\DATAICC\Emisiones GEI\GLOBAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\GLOBAL\Causas Cambio Climático\Antropógenas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C327D27-2FA4-4685-A3AC-A00FB3EBAB3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D952F0C-667F-475F-960A-67A8708AFDB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{187C73A4-E3D5-4931-9EF8-CFCA5FFCAFD5}"/>
   </bookViews>
@@ -548,7 +548,7 @@
   <dimension ref="A1:I721"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
